--- a/DOC/結合テスト/EMSM_結合テストエビデンス_有給管理リスト.xlsx
+++ b/DOC/結合テスト/EMSM_結合テストエビデンス_有給管理リスト.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\2024-03\workspace\emsm\DOC\結合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C25056F-607C-4074-83D4-ACB20E5BE6F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0E4C64E-128F-4D43-97F6-8F50A683DE7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{E97C25ED-A76B-4C76-8335-E973CA966944}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{E97C25ED-A76B-4C76-8335-E973CA966944}"/>
   </bookViews>
   <sheets>
     <sheet name="NO.1" sheetId="5" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="NO.4" sheetId="6" r:id="rId4"/>
     <sheet name="NO.5" sheetId="9" r:id="rId5"/>
     <sheet name="NO.6" sheetId="10" r:id="rId6"/>
+    <sheet name="NO.7" sheetId="11" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>テストデータNo.1でログイン</t>
   </si>
@@ -66,12 +67,6 @@
   </si>
   <si>
     <t>NO.5</t>
-  </si>
-  <si>
-    <t>NO.6</t>
-  </si>
-  <si>
-    <t>更新ボダン押す</t>
   </si>
   <si>
     <t>社内管理システム機能画面の「有給管理」ボタン押す</t>
@@ -106,6 +101,22 @@
   </si>
   <si>
     <t>有給更新画面へ遷移される</t>
+  </si>
+  <si>
+    <t>NO.6</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>NO.7</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>更新ボダン押す</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>更新ボダン押す(当年度と一致しない)</t>
+    <phoneticPr fontId="3"/>
   </si>
 </sst>
 </file>
@@ -972,15 +983,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>643890</xdr:colOff>
+      <xdr:colOff>666750</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>83820</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>218234</xdr:colOff>
+      <xdr:colOff>241094</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>207949</xdr:rowOff>
+      <xdr:rowOff>200329</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1003,7 +1014,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="643890" y="769620"/>
+          <a:off x="666750" y="762000"/>
           <a:ext cx="7621064" cy="2181529"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1367,22 +1378,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>99060</xdr:colOff>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>143544</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>213360</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>277279</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>61290</xdr:rowOff>
+      <xdr:rowOff>11959</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="図 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B1A01FC-F6EA-C0F9-8ED5-470C4B1C659A}"/>
+        <xdr:cNvPr id="8" name="図 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F162A86B-CB77-AA11-D7B7-950C88D4C894}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1398,8 +1409,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="769620" y="8214360"/>
-          <a:ext cx="7554379" cy="2362530"/>
+          <a:off x="716280" y="4221480"/>
+          <a:ext cx="4791744" cy="3791479"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1408,25 +1419,30 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>30480</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>132489</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>32748</xdr:rowOff>
+      <xdr:colOff>239179</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>190830</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="図 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7A85CCF-F564-DD71-EE37-43A2F04CED11}"/>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30718721-D078-42D0-A0BC-B854A8291D0D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1435,15 +1451,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="701040" y="11376660"/>
-          <a:ext cx="7478169" cy="2600688"/>
+          <a:off x="731520" y="571500"/>
+          <a:ext cx="7554379" cy="2362530"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1454,23 +1470,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>45720</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>106680</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>143544</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>11959</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>662940</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>94389</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>162288</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="図 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F162A86B-CB77-AA11-D7B7-950C88D4C894}"/>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3AD02B8F-B4B5-44C3-979D-FACE66D7836C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1479,15 +1495,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="716280" y="4221480"/>
-          <a:ext cx="4791744" cy="3791479"/>
+          <a:off x="662940" y="3733800"/>
+          <a:ext cx="7478169" cy="2600688"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1499,22 +1515,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>510540</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>220980</xdr:rowOff>
+      <xdr:colOff>472440</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>468715</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
+      <xdr:colOff>430615</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="四角形: 角を丸くする 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65CE7E7A-3DB9-4C27-933E-0D79B713C82C}"/>
+        <xdr:cNvPr id="4" name="四角形: 角を丸くする 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3AADFCE-C519-48EC-A0EB-D4DB0F82B2B3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1522,7 +1538,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7216140" y="9822180"/>
+          <a:off x="7178040" y="2179320"/>
           <a:ext cx="628735" cy="358140"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -1564,22 +1580,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>148590</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>11430</xdr:rowOff>
+      <xdr:colOff>110490</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>140970</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>472440</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
+      <xdr:colOff>434340</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="矢印: 下 12">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C96D02C3-739A-4683-8568-D8BBC25BCABE}"/>
+        <xdr:cNvPr id="5" name="矢印: 下 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86440C77-BEB6-4B9C-A6EA-1E103CE5AC6B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1587,7 +1603,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4171950" y="10298430"/>
+          <a:off x="4133850" y="2655570"/>
           <a:ext cx="323850" cy="1375410"/>
         </a:xfrm>
         <a:prstGeom prst="downArrow">
@@ -1628,22 +1644,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>464820</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>426720</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>422995</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
+      <xdr:colOff>384895</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="四角形: 角を丸くする 13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1EBBE17-FCEF-4952-AB1B-A063C66856EF}"/>
+        <xdr:cNvPr id="6" name="四角形: 角を丸くする 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60765F75-42FA-4B3D-A2FC-9EB838889F85}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1651,7 +1667,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1805940" y="9829800"/>
+          <a:off x="1767840" y="2186940"/>
           <a:ext cx="628735" cy="358140"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -2025,7 +2041,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
@@ -2038,7 +2054,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="C3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -2053,7 +2069,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -2065,7 +2081,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -2092,7 +2108,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B2" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.45">
@@ -2111,8 +2127,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -2124,7 +2140,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -2138,25 +2154,52 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="N45" sqref="N45"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6A17541-BFC2-4DB5-A2DB-FE6898C1ADA0}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B2" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/DOC/結合テスト/EMSM_結合テストエビデンス_有給管理リスト.xlsx
+++ b/DOC/結合テスト/EMSM_結合テストエビデンス_有給管理リスト.xlsx
@@ -1,25 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\2024-03\workspace\emsm\DOC\結合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0E4C64E-128F-4D43-97F6-8F50A683DE7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D5DEB61-3048-4EA3-8DB1-D833BB3BA5A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{E97C25ED-A76B-4C76-8335-E973CA966944}"/>
+    <workbookView xWindow="2220" yWindow="720" windowWidth="14232" windowHeight="11712" activeTab="3" xr2:uid="{E97C25ED-A76B-4C76-8335-E973CA966944}"/>
   </bookViews>
   <sheets>
-    <sheet name="NO.1" sheetId="5" r:id="rId1"/>
-    <sheet name="NO.2" sheetId="8" r:id="rId2"/>
-    <sheet name="NO.3" sheetId="7" r:id="rId3"/>
-    <sheet name="NO.4" sheetId="6" r:id="rId4"/>
-    <sheet name="NO.5" sheetId="9" r:id="rId5"/>
-    <sheet name="NO.6" sheetId="10" r:id="rId6"/>
-    <sheet name="NO.7" sheetId="11" r:id="rId7"/>
+    <sheet name="NO.1" sheetId="7" r:id="rId1"/>
+    <sheet name="NO.2" sheetId="6" r:id="rId2"/>
+    <sheet name="NO.3" sheetId="9" r:id="rId3"/>
+    <sheet name="NO.4" sheetId="10" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,88 +39,59 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
-    <t>テストデータNo.1でログイン</t>
+    <t>NO.1</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>社内管理システム機能画面表示</t>
+    <t>社員のセレクトボックスのプルダウンメニューボタンをクリック</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>社員にE002を選択し、「検索」ボタンをクリック</t>
+    <rPh sb="0" eb="2">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>NO.2</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>入力した2022のデータが表示</t>
+    <t>NO.3</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t xml:space="preserve">No.1初期表示ー社内管理システム機能画面
-</t>
+    <t>「全量検索」ボタンをクリック</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>NO.4</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>NO.3</t>
+    <t xml:space="preserve">①「全量検索」して、employeeID=E001　行の「更新」ボタンをクリック
+</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>NO.5</t>
-  </si>
-  <si>
-    <t>社内管理システム機能画面の「有給管理」ボタン押す</t>
-    <rPh sb="14" eb="18">
-      <t>ユウキュウカンリ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>セレクトボックスのオプションから社員氏名が表示</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>社員に(社員1)を選択されて検索ボダン押す</t>
-    <rPh sb="0" eb="2">
-      <t>シャイン</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>シャイン</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>全量検索ボダン押す</t>
-    <rPh sb="0" eb="2">
-      <t>ゼンリョウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ケンサク</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>有給更新画面へ遷移される</t>
-  </si>
-  <si>
-    <t>NO.6</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>NO.7</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>更新ボダン押す</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>更新ボダン押す(当年度と一致しない)</t>
-    <phoneticPr fontId="3"/>
+    <t>②「有給更新」画面にて、利用済項目に　テストデータと違う日付を入力して、「登録」ボタンをクリック</t>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -131,12 +99,6 @@
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Meiryo UI"/>
-      <family val="2"/>
-      <charset val="128"/>
     </font>
     <font>
       <sz val="10"/>
@@ -160,14 +122,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -179,12 +134,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -204,114 +156,25 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="4724400" cy="3914775"/>
+      <xdr:colOff>655320</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>595381</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>13717</xdr:rowOff>
+    </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="571500" y="533400"/>
-          <a:ext cx="4724400" cy="3914775"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>7621</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>24765</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>243585</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="図 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{793364EB-841B-2748-CB9C-16D755031E7E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7635241" y="504825"/>
-          <a:ext cx="7863584" cy="2055495"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>449580</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>118958</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="図 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{891B985F-E54A-CAD6-7128-27927EE42D70}"/>
+        <xdr:cNvPr id="5" name="図 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9511748-27B3-694B-F87F-2F3FE405DCFA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -327,8 +190,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1120140" y="731520"/>
-          <a:ext cx="10774680" cy="2816438"/>
+          <a:off x="655320" y="708660"/>
+          <a:ext cx="7316221" cy="2734057"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -339,23 +202,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>270510</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>163830</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>388620</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>499110</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>49530</xdr:rowOff>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>556260</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="四角形: 角を丸くする 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+        <xdr:cNvPr id="3" name="四角形: 角を丸くする 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -363,8 +226,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2952750" y="1306830"/>
-          <a:ext cx="788670" cy="342900"/>
+          <a:off x="1169670" y="1676399"/>
+          <a:ext cx="727710" cy="571501"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -402,25 +265,118 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>579120</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>604918</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>105098</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="図 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45149468-0EC1-BBC7-5F05-A258EE38D271}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="579120" y="4419600"/>
+          <a:ext cx="7401958" cy="2314898"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>523068</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>185217</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D1A8EAC-406F-7E62-106F-8B42F32B630D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="701040" y="518160"/>
+          <a:ext cx="7868748" cy="3096057"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>474345</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>68580</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>137160</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1905</xdr:colOff>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>59055</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>594360</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>163830</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="矢印: 下 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
+        <xdr:cNvPr id="4" name="正方形/長方形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -428,12 +384,13 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3156585" y="1668780"/>
-          <a:ext cx="333375" cy="2962275"/>
-        </a:xfrm>
-        <a:prstGeom prst="downArrow">
-          <a:avLst/>
-        </a:prstGeom>
+          <a:off x="2013585" y="1202055"/>
+          <a:ext cx="592455" cy="333375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
         <a:ln>
           <a:headEnd type="none"/>
           <a:tailEnd type="none"/>
@@ -466,85 +423,36 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>89535</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>418194</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>112773</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="図 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9DE1CFA-E2C1-1331-67D6-69AE5D02E334}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="965835" y="4661535"/>
-          <a:ext cx="11522439" cy="4366638"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>560070</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>464820</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="四角形: 角を丸くする 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+        <xdr:cNvPr id="5" name="正方形/長方形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="857250" y="923925"/>
-          <a:ext cx="400050" cy="628650"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
+        <a:xfrm flipV="1">
+          <a:off x="560070" y="5981700"/>
+          <a:ext cx="7280910" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:noFill/>
@@ -580,162 +488,25 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>624840</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>465921</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>29010</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="図 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{888907D6-5D19-F2D3-2008-3C3DA6726D91}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="624840" y="571500"/>
-          <a:ext cx="7887801" cy="3115110"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>556260</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>130604</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>131749</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="図 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8FDC8233-B2B0-83D6-FAF2-D6DD10912020}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="556260" y="6408420"/>
-          <a:ext cx="7621064" cy="2181529"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>93345</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>387798</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>65213</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="図 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{323C1B58-351F-5392-4B91-9BB4892AB36A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="670560" y="550545"/>
-          <a:ext cx="7763958" cy="3172268"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1905</xdr:colOff>
+      <xdr:colOff>607695</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>59055</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>594360</xdr:colOff>
+      <xdr:rowOff>207645</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>369570</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>163830</xdr:rowOff>
+      <xdr:rowOff>17145</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="正方形/長方形 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004000000}"/>
+        <xdr:cNvPr id="6" name="矢印: 左 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -743,13 +514,12 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2013585" y="1202055"/>
-          <a:ext cx="592455" cy="333375"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
+          <a:off x="2619375" y="1350645"/>
+          <a:ext cx="432435" cy="38100"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftArrow">
+          <a:avLst/>
+        </a:prstGeom>
         <a:ln>
           <a:headEnd type="none"/>
           <a:tailEnd type="none"/>
@@ -784,23 +554,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>598170</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>160020</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>502920</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>182880</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>417195</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>198121</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="正方形/長方形 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000005000000}"/>
+        <xdr:cNvPr id="9" name="矢印: 下 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ADF99B0D-1D7C-4849-8C32-AC3FADF5A8A6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -808,13 +578,12 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="598170" y="7932420"/>
-          <a:ext cx="7280910" cy="480060"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
+          <a:off x="3436620" y="2857501"/>
+          <a:ext cx="333375" cy="1455420"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
         <a:ln>
           <a:headEnd type="none"/>
           <a:tailEnd type="none"/>
@@ -847,25 +616,118 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>541020</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>1048</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>217518</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="図 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3BC3BBE8-3485-304D-3380-F392C91A00C0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="541020" y="693420"/>
+          <a:ext cx="7506748" cy="2495898"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>102003</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>76604</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="図 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2636A337-20E1-F98C-A118-9900A5B00211}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="708660" y="4267200"/>
+          <a:ext cx="7440063" cy="2896004"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>607695</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>207645</xdr:rowOff>
+      <xdr:colOff>384810</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>369570</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>17145</xdr:rowOff>
+      <xdr:colOff>617220</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>146685</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="矢印: 左 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000006000000}"/>
+        <xdr:cNvPr id="4" name="四角形: 角を丸くする 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -873,12 +735,13 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2619375" y="1350645"/>
-          <a:ext cx="432435" cy="38100"/>
-        </a:xfrm>
-        <a:prstGeom prst="leftArrow">
-          <a:avLst/>
-        </a:prstGeom>
+          <a:off x="2396490" y="1394460"/>
+          <a:ext cx="902970" cy="352425"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
         <a:ln>
           <a:headEnd type="none"/>
           <a:tailEnd type="none"/>
@@ -913,23 +776,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>649605</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>196215</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>340995</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>13335</xdr:rowOff>
+      <xdr:colOff>411480</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>5715</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="矢印: 下 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ADF99B0D-1D7C-4849-8C32-AC3FADF5A8A6}"/>
+        <xdr:cNvPr id="3" name="矢印: 左 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F9665F9-A466-43FC-A088-BD30BDD1BC76}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -937,10 +800,10 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3360420" y="3451860"/>
-          <a:ext cx="333375" cy="2962275"/>
-        </a:xfrm>
-        <a:prstGeom prst="downArrow">
+          <a:off x="3331845" y="1567815"/>
+          <a:ext cx="432435" cy="38100"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftArrow">
           <a:avLst/>
         </a:prstGeom>
         <a:ln>
@@ -975,74 +838,25 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>241094</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>200329</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="図 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3B79DEF-3299-4246-9607-4C6F9BA605A7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="666750" y="762000"/>
-          <a:ext cx="7621064" cy="2181529"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>83820</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>205740</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>207645</xdr:rowOff>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>24765</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>137161</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="四角形: 角を丸くする 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000004000000}"/>
+        <xdr:cNvPr id="8" name="矢印: 下 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FFF3D410-5067-4836-A808-0434F579E3F2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1050,13 +864,12 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2564130" y="1455420"/>
-          <a:ext cx="994410" cy="352425"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
+          <a:off x="3714750" y="3067051"/>
+          <a:ext cx="333375" cy="1184910"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
         <a:ln>
           <a:headEnd type="none"/>
           <a:tailEnd type="none"/>
@@ -1091,23 +904,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>215265</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>97155</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>358140</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>59055</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>598170</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="矢印: 下 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000005000000}"/>
+        <xdr:cNvPr id="2" name="正方形/長方形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22F571CF-BCA7-4C69-8555-284B7D7BA290}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1115,12 +928,13 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2897505" y="2840355"/>
-          <a:ext cx="142875" cy="1104900"/>
-        </a:xfrm>
-        <a:prstGeom prst="downArrow">
-          <a:avLst/>
-        </a:prstGeom>
+          <a:off x="693420" y="5966460"/>
+          <a:ext cx="7280910" cy="723900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
         <a:ln>
           <a:headEnd type="none"/>
           <a:tailEnd type="none"/>
@@ -1153,25 +967,74 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>563880</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>144780</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>281118</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>137160</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>182011</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>116648</xdr:rowOff>
+      <xdr:rowOff>133720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="図 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF324CBD-3079-4C5E-A954-0BBEDFE82812}"/>
+        <xdr:cNvPr id="11" name="図 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06FC34CA-8480-85C0-B781-9B5D6B748A42}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6842760" y="4572000"/>
+          <a:ext cx="7421011" cy="2648320"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>601980</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>223955</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>129918</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="図 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{665FCAFC-ABD0-2424-4DF7-D7EB41FF23F5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1187,8 +1050,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="563880" y="4030980"/>
-          <a:ext cx="7763958" cy="3172268"/>
+          <a:off x="6637020" y="8168640"/>
+          <a:ext cx="7668695" cy="2705478"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1197,30 +1060,25 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>586740</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>68580</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>161084</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>192709</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>143544</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>11959</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="図 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{513DEAF9-977B-470F-BCEC-9ED5040B976F}"/>
+        <xdr:cNvPr id="8" name="図 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F162A86B-CB77-AA11-D7B7-950C88D4C894}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1229,15 +1087,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="586740" y="525780"/>
-          <a:ext cx="7621064" cy="2181529"/>
+          <a:off x="716280" y="4221480"/>
+          <a:ext cx="4791744" cy="3791479"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1246,18 +1104,62 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>63903</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>152804</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{811E1D4C-1775-4C7A-B434-73CA7A46C895}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="670560" y="914400"/>
+          <a:ext cx="7440063" cy="2896004"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>358140</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>316315</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>167640</xdr:rowOff>
+      <xdr:colOff>377275</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1272,7 +1174,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7063740" y="2095500"/>
+          <a:off x="7124700" y="2621280"/>
           <a:ext cx="628735" cy="358140"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -1313,16 +1215,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>320040</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>384810</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>3810</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1337,7 +1239,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4019550" y="2571750"/>
+          <a:off x="9772650" y="6861810"/>
           <a:ext cx="323850" cy="1375410"/>
         </a:xfrm>
         <a:prstGeom prst="downArrow">
@@ -1375,162 +1277,25 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>45720</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>106680</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>143544</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>11959</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="図 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F162A86B-CB77-AA11-D7B7-950C88D4C894}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="716280" y="4221480"/>
-          <a:ext cx="4791744" cy="3791479"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>60960</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>426720</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>239179</xdr:colOff>
+      <xdr:colOff>188595</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>190830</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30718721-D078-42D0-A0BC-B854A8291D0D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="731520" y="571500"/>
-          <a:ext cx="7554379" cy="2362530"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>662940</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>94389</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>162288</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3AD02B8F-B4B5-44C3-979D-FACE66D7836C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="662940" y="3733800"/>
-          <a:ext cx="7478169" cy="2600688"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>472440</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>430615</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
+      <xdr:rowOff>60960</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="四角形: 角を丸くする 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3AADFCE-C519-48EC-A0EB-D4DB0F82B2B3}"/>
+        <xdr:cNvPr id="3" name="矢印: 左 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27B5742F-CEA1-4FE0-81E8-05AE278B3910}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1538,13 +1303,12 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7178040" y="2179320"/>
-          <a:ext cx="628735" cy="358140"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
+          <a:off x="7802880" y="2766060"/>
+          <a:ext cx="432435" cy="38100"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftArrow">
+          <a:avLst/>
+        </a:prstGeom>
         <a:ln>
           <a:headEnd type="none"/>
           <a:tailEnd type="none"/>
@@ -1579,23 +1343,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>110490</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>140970</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>434340</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>144780</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>41995</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="矢印: 下 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86440C77-BEB6-4B9C-A6EA-1E103CE5AC6B}"/>
+        <xdr:cNvPr id="6" name="四角形: 角を丸くする 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ADCC0DDE-D15A-497F-BFF9-49A245DEB2AE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1603,12 +1367,13 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4133850" y="2655570"/>
-          <a:ext cx="323850" cy="1375410"/>
-        </a:xfrm>
-        <a:prstGeom prst="downArrow">
-          <a:avLst/>
-        </a:prstGeom>
+          <a:off x="754380" y="7421880"/>
+          <a:ext cx="628735" cy="358140"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
         <a:ln>
           <a:headEnd type="none"/>
           <a:tailEnd type="none"/>
@@ -1644,22 +1409,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>426720</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>384895</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>30480</xdr:rowOff>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="四角形: 角を丸くする 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60765F75-42FA-4B3D-A2FC-9EB838889F85}"/>
+        <xdr:cNvPr id="7" name="矢印: 左 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F933E8BF-E867-45D6-BBA5-C2441D3EAB75}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1667,8 +1432,329 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1767840" y="2186940"/>
-          <a:ext cx="628735" cy="358140"/>
+          <a:off x="1432560" y="7566660"/>
+          <a:ext cx="432435" cy="38100"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="none"/>
+          <a:tailEnd type="none"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>643890</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>201930</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="矢印: 下 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8B0534B-BBD3-41C4-858B-A251114CBDFE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="5863590" y="5391150"/>
+          <a:ext cx="323850" cy="1375410"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="none"/>
+          <a:tailEnd type="none"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>72390</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>87630</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>396240</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="矢印: 下 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94E92F3F-9DC2-4BFF-8648-3970DCCE8D42}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3425190" y="3516630"/>
+          <a:ext cx="323850" cy="1375410"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="none"/>
+          <a:tailEnd type="none"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>106680</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>335280</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="四角形: 角を丸くする 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E91064F-348E-4754-9709-7D98F897AD94}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8823960" y="5745480"/>
+          <a:ext cx="899160" cy="358140"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:headEnd type="none"/>
+          <a:tailEnd type="none"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>403860</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>165735</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>213360</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="矢印: 左 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{109A0F99-A8C7-4320-9F63-B16F060531DE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9791700" y="5890260"/>
+          <a:ext cx="432435" cy="38100"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="none"/>
+          <a:tailEnd type="none"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>563880</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="四角形: 角を丸くする 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F0E3848-58BD-4BEA-8BBB-E8899168E306}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11963400" y="9768840"/>
+          <a:ext cx="1234440" cy="358140"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -2005,71 +2091,92 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N21" sqref="N21"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="12.6" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="16384" width="9.09765625" style="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A1" s="1" t="s">
-        <v>4</v>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="L2" s="1" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B2" t="s">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3"/>
+  <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-    </row>
   </sheetData>
-  <phoneticPr fontId="3"/>
+  <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="M41" sqref="M41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -2081,129 +2188,16 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:B15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B2" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B15" t="s">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:B18"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B18" t="s">
-        <v>12</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6A17541-BFC2-4DB5-A2DB-FE6898C1ADA0}">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3"/>
+  <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
